--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_6_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_6_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2453315.441703335</v>
+        <v>-2455019.793840047</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,13 +674,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>226.6141516527638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>119.1228491011182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>101.6750322955565</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>241.0142888776591</v>
@@ -908,16 +908,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>213.3370800007135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>174.3702863852114</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>165.4493372338499</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>33.60023339142369</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>186.0850531309659</v>
       </c>
       <c r="W8" t="n">
         <v>241.0142888776591</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.07165222581214</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.3140662372057</v>
+        <v>362.3140662372058</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>344.8531163447328</v>
       </c>
       <c r="D11" t="n">
-        <v>334.2632661944081</v>
+        <v>334.2632661944082</v>
       </c>
       <c r="E11" t="n">
-        <v>361.5105946459869</v>
+        <v>361.510594645987</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>386.4562703154367</v>
       </c>
       <c r="G11" t="n">
-        <v>392.5197736437242</v>
+        <v>392.5197736437243</v>
       </c>
       <c r="H11" t="n">
         <v>294.8530230257434</v>
       </c>
       <c r="I11" t="n">
-        <v>98.94929161302585</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.7491374664341</v>
+        <v>43.22653585499916</v>
       </c>
       <c r="T11" t="n">
-        <v>192.3312167192737</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>230.7368224059508</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>307.3324830438601</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>139.2581645577628</v>
+        <v>328.8211932911382</v>
       </c>
       <c r="X11" t="n">
-        <v>349.3113252521942</v>
+        <v>349.3113252521943</v>
       </c>
       <c r="Y11" t="n">
-        <v>365.8181632297787</v>
+        <v>365.8181632297788</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>159.4122047556625</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.8270456723531</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0141872202943</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>125.0012725966565</v>
       </c>
       <c r="G13" t="n">
-        <v>146.5111589513637</v>
+        <v>146.5111589513638</v>
       </c>
       <c r="H13" t="n">
-        <v>132.3826335244177</v>
+        <v>52.57948525026811</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>266.1032229103162</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>157.4848425457322</v>
+        <v>198.16487792582</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>362.3140662372057</v>
+        <v>362.3140662372058</v>
       </c>
       <c r="C14" t="n">
-        <v>344.8531163447327</v>
+        <v>344.8531163447328</v>
       </c>
       <c r="D14" t="n">
-        <v>161.357715762287</v>
+        <v>334.2632661944082</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>361.510594645987</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>386.4562703154367</v>
       </c>
       <c r="G14" t="n">
-        <v>392.5197736437242</v>
+        <v>392.5197736437243</v>
       </c>
       <c r="H14" t="n">
         <v>294.8530230257434</v>
       </c>
       <c r="I14" t="n">
-        <v>98.94929161302585</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.7491374664341</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>192.3312167192737</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>230.7368224059508</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>307.3324830438601</v>
+        <v>43.22653585499894</v>
       </c>
       <c r="W14" t="n">
         <v>328.8211932911382</v>
       </c>
       <c r="X14" t="n">
-        <v>349.3113252521942</v>
+        <v>349.3113252521943</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.8181632297787</v>
+        <v>365.8181632297788</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.1956975919375</v>
+        <v>128.1956975919376</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.5111589513637</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.1522558959535</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.2101389041964</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>185.1231296267669</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>202.9965309021385</v>
       </c>
       <c r="U16" t="n">
-        <v>46.46511176060079</v>
+        <v>17.21900498320836</v>
       </c>
       <c r="V16" t="n">
         <v>231.7178678975532</v>
@@ -1862,7 +1862,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I17" t="n">
-        <v>37.55779725345614</v>
+        <v>37.55779725345617</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.35764310686446</v>
+        <v>73.35764310686444</v>
       </c>
       <c r="T17" t="n">
         <v>130.939722359704</v>
@@ -1941,7 +1941,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I18" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>21.65304841868479</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S18" t="n">
         <v>148.1971745240615</v>
@@ -2014,13 +2014,13 @@
         <v>63.6097782370867</v>
       </c>
       <c r="G19" t="n">
-        <v>10.61891853426767</v>
+        <v>85.11966459179401</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>70.99113916484798</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76076153638381</v>
+        <v>41.76076153638382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.81864454462666</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S19" t="n">
         <v>123.7316352671971</v>
@@ -2056,7 +2056,7 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U19" t="n">
-        <v>204.4499389353289</v>
+        <v>58.95805371295523</v>
       </c>
       <c r="V19" t="n">
         <v>170.3263735379834</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S20" t="n">
-        <v>73.35764310686444</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T20" t="n">
         <v>130.939722359704</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.02071039609274</v>
+        <v>98.02071039609272</v>
       </c>
       <c r="C22" t="n">
-        <v>85.43555131278328</v>
+        <v>85.43555131278326</v>
       </c>
       <c r="D22" t="n">
-        <v>66.8042032323678</v>
+        <v>66.80420323236778</v>
       </c>
       <c r="E22" t="n">
-        <v>64.62269286072461</v>
+        <v>64.6226928607246</v>
       </c>
       <c r="F22" t="n">
-        <v>63.60977823708669</v>
+        <v>63.60977823708667</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179399</v>
+        <v>85.11966459179398</v>
       </c>
       <c r="H22" t="n">
-        <v>70.99113916484797</v>
+        <v>70.99113916484794</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76076153638381</v>
+        <v>41.7607615363838</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>47.81864454462664</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7316352671971</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>141.6050365425687</v>
+        <v>119.8447865873923</v>
       </c>
       <c r="U22" t="n">
         <v>204.4499389353289</v>
       </c>
       <c r="V22" t="n">
-        <v>24.83448831561026</v>
+        <v>170.3263735379834</v>
       </c>
       <c r="W22" t="n">
         <v>204.7117285507464</v>
@@ -2318,7 +2318,7 @@
         <v>300.9225718776361</v>
       </c>
       <c r="C23" t="n">
-        <v>283.4616219851631</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D23" t="n">
         <v>272.8717718348385</v>
@@ -2327,16 +2327,16 @@
         <v>300.1191002864173</v>
       </c>
       <c r="F23" t="n">
-        <v>325.064775955867</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G23" t="n">
         <v>331.1282792841546</v>
       </c>
       <c r="H23" t="n">
-        <v>233.4615286661738</v>
+        <v>233.4615286661737</v>
       </c>
       <c r="I23" t="n">
-        <v>37.55779725345627</v>
+        <v>37.55779725345622</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.35764310686456</v>
+        <v>73.35764310686449</v>
       </c>
       <c r="T23" t="n">
         <v>130.9397223597041</v>
       </c>
       <c r="U23" t="n">
-        <v>169.3453280463781</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V23" t="n">
-        <v>245.9409886842905</v>
+        <v>245.9409886842904</v>
       </c>
       <c r="W23" t="n">
-        <v>267.4296989315686</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X23" t="n">
-        <v>287.9198308926246</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y23" t="n">
         <v>304.4266688702091</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.02071039609285</v>
+        <v>98.02071039609278</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278339</v>
+        <v>85.43555131278332</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236791</v>
+        <v>66.80420323236784</v>
       </c>
       <c r="E25" t="n">
-        <v>64.62269286072473</v>
+        <v>64.62269286072465</v>
       </c>
       <c r="F25" t="n">
-        <v>63.6097782370868</v>
+        <v>63.60977823708673</v>
       </c>
       <c r="G25" t="n">
-        <v>85.11966459179409</v>
+        <v>85.11966459179403</v>
       </c>
       <c r="H25" t="n">
-        <v>70.99113916484808</v>
+        <v>70.99113916484801</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76076153638392</v>
+        <v>41.76076153638385</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.81864454462676</v>
+        <v>47.81864454462668</v>
       </c>
       <c r="S25" t="n">
         <v>123.7316352671972</v>
@@ -2530,19 +2530,19 @@
         <v>141.6050365425688</v>
       </c>
       <c r="U25" t="n">
-        <v>204.449938935329</v>
+        <v>58.95805371295369</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6078718818575</v>
+        <v>170.3263735379835</v>
       </c>
       <c r="W25" t="n">
-        <v>204.7117285507466</v>
+        <v>204.7117285507465</v>
       </c>
       <c r="X25" t="n">
         <v>143.8983856031927</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>136.7733835662503</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I26" t="n">
-        <v>37.55779725345617</v>
+        <v>37.55779725345616</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.02071039609275</v>
+        <v>98.02071039609274</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43555131278329</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>6.747869322777831</v>
       </c>
       <c r="E28" t="n">
-        <v>64.62269286072463</v>
+        <v>64.62269286072461</v>
       </c>
       <c r="F28" t="n">
-        <v>55.91323541192806</v>
+        <v>63.60977823708669</v>
       </c>
       <c r="G28" t="n">
-        <v>85.11966459179401</v>
+        <v>85.11966459179399</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>70.99113916484797</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76076153638382</v>
+        <v>41.76076153638381</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462665</v>
+        <v>47.81864454462664</v>
       </c>
       <c r="S28" t="n">
         <v>123.7316352671971</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300.9225718776361</v>
+        <v>300.922571877636</v>
       </c>
       <c r="C29" t="n">
         <v>283.461621985163</v>
       </c>
       <c r="D29" t="n">
-        <v>272.8717718348385</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E29" t="n">
-        <v>300.1191002864173</v>
+        <v>300.1191002864172</v>
       </c>
       <c r="F29" t="n">
         <v>325.0647759558669</v>
       </c>
       <c r="G29" t="n">
-        <v>331.1282792841546</v>
+        <v>331.1282792841545</v>
       </c>
       <c r="H29" t="n">
-        <v>233.4615286661737</v>
+        <v>233.4615286661736</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345623</v>
+        <v>37.55779725345616</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.3576431068645</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T29" t="n">
-        <v>130.9397223597041</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U29" t="n">
-        <v>169.3453280463812</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V29" t="n">
-        <v>245.9409886842904</v>
+        <v>245.9409886842903</v>
       </c>
       <c r="W29" t="n">
         <v>267.4296989315685</v>
@@ -2858,7 +2858,7 @@
         <v>287.9198308926245</v>
       </c>
       <c r="Y29" t="n">
-        <v>304.4266688702091</v>
+        <v>304.426668870209</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.02071039609281</v>
+        <v>98.02071039609274</v>
       </c>
       <c r="C31" t="n">
-        <v>85.43555131278335</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>66.80420323236787</v>
+        <v>6.747869322776694</v>
       </c>
       <c r="E31" t="n">
-        <v>64.62269286072468</v>
+        <v>64.62269286072461</v>
       </c>
       <c r="F31" t="n">
-        <v>63.60977823708676</v>
+        <v>63.60977823708669</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>85.11966459179399</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99113916484804</v>
+        <v>70.99113916484797</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.76076153638381</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.81864454462671</v>
+        <v>47.81864454462664</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7316352671972</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T31" t="n">
-        <v>141.6050365425688</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U31" t="n">
         <v>204.4499389353289</v>
       </c>
       <c r="V31" t="n">
-        <v>170.3263735379835</v>
+        <v>170.3263735379834</v>
       </c>
       <c r="W31" t="n">
-        <v>204.7117285507465</v>
+        <v>204.7117285507464</v>
       </c>
       <c r="X31" t="n">
-        <v>125.2869265089955</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.7733835662503</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>294.8199291298099</v>
       </c>
       <c r="C32" t="n">
         <v>277.3589792373368</v>
       </c>
       <c r="D32" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E32" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F32" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G32" t="n">
         <v>325.0256365363284</v>
@@ -3047,7 +3047,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>33.65840141497525</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S32" t="n">
-        <v>67.25500035903831</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T32" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U32" t="n">
         <v>163.2426852985549</v>
       </c>
       <c r="V32" t="n">
-        <v>239.8383459364642</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>261.3270561837423</v>
+        <v>263.5303030930876</v>
       </c>
       <c r="X32" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y32" t="n">
         <v>298.3240261223829</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D34" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E34" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G34" t="n">
         <v>79.01702184396784</v>
       </c>
       <c r="H34" t="n">
-        <v>64.88849641702183</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I34" t="n">
-        <v>35.65811878855767</v>
+        <v>35.65811878855766</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S34" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T34" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U34" t="n">
         <v>198.3472961875027</v>
@@ -3250,7 +3250,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X34" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y34" t="n">
         <v>130.6707408184241</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.81992912981</v>
+        <v>294.8199291298099</v>
       </c>
       <c r="C35" t="n">
         <v>277.3589792373369</v>
@@ -3272,19 +3272,19 @@
         <v>266.7691290870123</v>
       </c>
       <c r="E35" t="n">
-        <v>294.0164575385912</v>
+        <v>294.0164575385911</v>
       </c>
       <c r="F35" t="n">
         <v>318.9621332080408</v>
       </c>
       <c r="G35" t="n">
-        <v>325.0256365363285</v>
+        <v>325.0256365363284</v>
       </c>
       <c r="H35" t="n">
-        <v>227.3588859183476</v>
+        <v>227.3588859183475</v>
       </c>
       <c r="I35" t="n">
-        <v>31.45515450563011</v>
+        <v>31.45515450563003</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.25500035903839</v>
+        <v>67.25500035903832</v>
       </c>
       <c r="T35" t="n">
-        <v>124.837079611878</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U35" t="n">
         <v>163.242685298555</v>
       </c>
       <c r="V35" t="n">
-        <v>239.8383459364643</v>
+        <v>239.8383459364642</v>
       </c>
       <c r="W35" t="n">
-        <v>261.3270561837424</v>
+        <v>261.3270561837423</v>
       </c>
       <c r="X35" t="n">
         <v>281.8171881447984</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.324026122383</v>
+        <v>298.3240261223829</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.91806764826669</v>
+        <v>91.91806764826661</v>
       </c>
       <c r="C37" t="n">
-        <v>79.33290856495722</v>
+        <v>79.33290856495715</v>
       </c>
       <c r="D37" t="n">
-        <v>60.70156048454174</v>
+        <v>60.70156048454167</v>
       </c>
       <c r="E37" t="n">
-        <v>58.52005011289856</v>
+        <v>58.52005011289849</v>
       </c>
       <c r="F37" t="n">
-        <v>57.50713548926063</v>
+        <v>57.50713548926056</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396792</v>
+        <v>79.01702184396787</v>
       </c>
       <c r="H37" t="n">
-        <v>64.88849641702191</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I37" t="n">
-        <v>35.65811878855776</v>
+        <v>35.65811878855769</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.7160017968006</v>
+        <v>41.71600179680053</v>
       </c>
       <c r="S37" t="n">
-        <v>117.6289925193711</v>
+        <v>117.628992519371</v>
       </c>
       <c r="T37" t="n">
-        <v>135.5023937947427</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U37" t="n">
         <v>198.3472961875028</v>
       </c>
       <c r="V37" t="n">
-        <v>164.2237307901574</v>
+        <v>164.2237307901573</v>
       </c>
       <c r="W37" t="n">
-        <v>198.6090858029204</v>
+        <v>198.6090858029203</v>
       </c>
       <c r="X37" t="n">
         <v>137.7957428553665</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.6707408184242</v>
+        <v>130.6707408184241</v>
       </c>
     </row>
     <row r="38">
@@ -3506,13 +3506,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D38" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E38" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F38" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G38" t="n">
         <v>325.0256365363284</v>
@@ -3521,7 +3521,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I38" t="n">
-        <v>31.45515450563001</v>
+        <v>31.45515450563003</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>124.8370796118779</v>
       </c>
       <c r="U38" t="n">
-        <v>163.2426852985551</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V38" t="n">
         <v>239.8383459364642</v>
@@ -3566,7 +3566,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X38" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y38" t="n">
         <v>298.3240261223829</v>
@@ -3600,7 +3600,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I39" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838227</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.65304841868479</v>
+        <v>21.65304841868485</v>
       </c>
       <c r="S39" t="n">
-        <v>148.1971745240615</v>
+        <v>148.1971745240616</v>
       </c>
       <c r="T39" t="n">
         <v>195.0682397085608</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826656</v>
       </c>
       <c r="C40" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495709</v>
       </c>
       <c r="D40" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454162</v>
       </c>
       <c r="E40" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289843</v>
       </c>
       <c r="F40" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926051</v>
       </c>
       <c r="G40" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396781</v>
       </c>
       <c r="H40" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702178</v>
       </c>
       <c r="I40" t="n">
-        <v>35.65811878855766</v>
+        <v>35.65811878855764</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71600179680051</v>
+        <v>41.7160017968005</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T40" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U40" t="n">
         <v>198.3472961875027</v>
@@ -3724,7 +3724,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X40" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y40" t="n">
         <v>130.6707408184241</v>
@@ -3740,7 +3740,7 @@
         <v>294.8199291298099</v>
       </c>
       <c r="C41" t="n">
-        <v>277.3589792373369</v>
+        <v>277.3589792373368</v>
       </c>
       <c r="D41" t="n">
         <v>266.7691290870123</v>
@@ -3758,7 +3758,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I41" t="n">
-        <v>31.45515450563006</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.25500035903835</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T41" t="n">
         <v>124.8370796118779</v>
       </c>
       <c r="U41" t="n">
-        <v>163.242685298555</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V41" t="n">
         <v>239.8383459364642</v>
@@ -3837,7 +3837,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I42" t="n">
-        <v>45.86296740838225</v>
+        <v>45.86296740838224</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.6530484186848</v>
+        <v>21.65304841868479</v>
       </c>
       <c r="S42" t="n">
         <v>148.1971745240615</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.91806764826664</v>
+        <v>91.9180676482666</v>
       </c>
       <c r="C43" t="n">
-        <v>79.33290856495718</v>
+        <v>79.33290856495714</v>
       </c>
       <c r="D43" t="n">
-        <v>60.7015604845417</v>
+        <v>60.70156048454166</v>
       </c>
       <c r="E43" t="n">
-        <v>58.52005011289852</v>
+        <v>58.52005011289847</v>
       </c>
       <c r="F43" t="n">
-        <v>57.50713548926059</v>
+        <v>57.50713548926055</v>
       </c>
       <c r="G43" t="n">
-        <v>79.01702184396788</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H43" t="n">
-        <v>64.88849641702186</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I43" t="n">
-        <v>35.65811878855772</v>
+        <v>35.65811878855766</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71600179680055</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S43" t="n">
         <v>117.628992519371</v>
@@ -3952,7 +3952,7 @@
         <v>135.5023937947426</v>
       </c>
       <c r="U43" t="n">
-        <v>198.3472961875028</v>
+        <v>198.3472961875027</v>
       </c>
       <c r="V43" t="n">
         <v>164.2237307901573</v>
@@ -3995,7 +3995,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I44" t="n">
-        <v>31.45515450562998</v>
+        <v>31.45515450562999</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25500035903826</v>
+        <v>67.25500035903828</v>
       </c>
       <c r="T44" t="n">
-        <v>124.8370796118783</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U44" t="n">
         <v>163.2426852985549</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.91806764826656</v>
+        <v>91.91806764826657</v>
       </c>
       <c r="C46" t="n">
-        <v>79.33290856495709</v>
+        <v>79.33290856495711</v>
       </c>
       <c r="D46" t="n">
-        <v>60.70156048454162</v>
+        <v>60.70156048454163</v>
       </c>
       <c r="E46" t="n">
-        <v>58.52005011289843</v>
+        <v>58.52005011289845</v>
       </c>
       <c r="F46" t="n">
-        <v>57.50713548926051</v>
+        <v>57.50713548926052</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396781</v>
+        <v>79.01702184396783</v>
       </c>
       <c r="H46" t="n">
-        <v>64.88849641702178</v>
+        <v>64.8884964170218</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878855763</v>
+        <v>35.65811878855764</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680046</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S46" t="n">
         <v>117.628992519371</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495.259035872464</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="C2" t="n">
-        <v>495.259035872464</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="D2" t="n">
-        <v>495.259035872464</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E2" t="n">
-        <v>495.259035872464</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>488.3135351232606</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>472.856224501912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4358,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>738.7078125165641</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="X2" t="n">
-        <v>495.259035872464</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="Y2" t="n">
-        <v>495.259035872464</v>
+        <v>528.5815077689649</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>428.1192463369997</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C3" t="n">
-        <v>428.1192463369997</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D3" t="n">
-        <v>279.1848366757484</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E3" t="n">
-        <v>279.1848366757484</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F3" t="n">
         <v>132.6502787026334</v>
@@ -4416,43 +4416,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W3" t="n">
-        <v>843.7310453074865</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X3" t="n">
-        <v>635.8795451019537</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y3" t="n">
-        <v>428.1192463369997</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.6161971483371</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>485.167420504237</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>485.167420504237</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>241.7186438601369</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F5" t="n">
-        <v>234.7731431109335</v>
+        <v>216.6737094609055</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4595,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.7661011803829</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C6" t="n">
-        <v>158.7661011803829</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D6" t="n">
-        <v>158.7661011803829</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E6" t="n">
-        <v>158.7661011803829</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
         <v>158.7661011803829</v>
@@ -4647,10 +4647,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
         <v>542.809531908403</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="W6" t="n">
-        <v>533.6469426057913</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="X6" t="n">
-        <v>366.5263999453368</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.7661011803829</v>
+        <v>787.9255531013317</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>281.7454097505996</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>281.7454097505996</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>347.7274039646085</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>347.7274039646085</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>198.7929943033573</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>39.55553929790176</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>39.55553929790176</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>39.55553929790176</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>39.55553929790176</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4887,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>555.4877027295624</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>555.4877027295624</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>555.4877027295624</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>347.7274039646085</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1570.534917234733</v>
+        <v>2209.282487989423</v>
       </c>
       <c r="C11" t="n">
-        <v>1570.534917234733</v>
+        <v>1860.946006833127</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.895254412098</v>
+        <v>1523.306344010493</v>
       </c>
       <c r="E11" t="n">
-        <v>867.7330375979701</v>
+        <v>1158.144127196365</v>
       </c>
       <c r="F11" t="n">
-        <v>867.7330375979701</v>
+        <v>767.7842581908733</v>
       </c>
       <c r="G11" t="n">
-        <v>471.2484177558244</v>
+        <v>371.2996383487276</v>
       </c>
       <c r="H11" t="n">
-        <v>173.4170813661846</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="I11" t="n">
         <v>73.46830195908778</v>
@@ -5051,7 +5051,7 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N11" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863255</v>
       </c>
       <c r="O11" t="n">
         <v>3004.568888469955</v>
@@ -5066,25 +5066,25 @@
         <v>3673.415097954389</v>
       </c>
       <c r="S11" t="n">
-        <v>3537.304858089304</v>
+        <v>3629.751930424087</v>
       </c>
       <c r="T11" t="n">
-        <v>3343.030901807209</v>
+        <v>3629.751930424087</v>
       </c>
       <c r="U11" t="n">
-        <v>3109.963404427461</v>
+        <v>3629.751930424087</v>
       </c>
       <c r="V11" t="n">
-        <v>2799.526552868007</v>
+        <v>3629.751930424087</v>
       </c>
       <c r="W11" t="n">
-        <v>2658.861740183399</v>
+        <v>3297.609310938089</v>
       </c>
       <c r="X11" t="n">
-        <v>2306.022017706435</v>
+        <v>2944.769588461125</v>
       </c>
       <c r="Y11" t="n">
-        <v>1936.508721514739</v>
+        <v>2575.256292269429</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J12" t="n">
-        <v>73.46830195908778</v>
+        <v>190.9942848817979</v>
       </c>
       <c r="K12" t="n">
-        <v>400.9597691519543</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L12" t="n">
-        <v>626.9177692143601</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M12" t="n">
-        <v>1264.423847230376</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N12" t="n">
         <v>1459.960876960276</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>482.4662612480532</v>
+        <v>549.1440216264024</v>
       </c>
       <c r="C13" t="n">
-        <v>482.4662612480532</v>
+        <v>400.8338744826114</v>
       </c>
       <c r="D13" t="n">
-        <v>482.4662612480532</v>
+        <v>400.8338744826114</v>
       </c>
       <c r="E13" t="n">
-        <v>355.1792034497761</v>
+        <v>400.8338744826114</v>
       </c>
       <c r="F13" t="n">
-        <v>355.1792034497761</v>
+        <v>274.569962768817</v>
       </c>
       <c r="G13" t="n">
-        <v>207.1881338019339</v>
+        <v>126.5788931209748</v>
       </c>
       <c r="H13" t="n">
         <v>73.46830195908778</v>
@@ -5197,22 +5197,22 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814347</v>
+        <v>75.45401965814366</v>
       </c>
       <c r="K13" t="n">
-        <v>195.5491741164734</v>
+        <v>195.5491741164735</v>
       </c>
       <c r="L13" t="n">
-        <v>399.1026573432035</v>
+        <v>399.1026573432034</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459855</v>
+        <v>623.0114736459853</v>
       </c>
       <c r="N13" t="n">
-        <v>847.511536432755</v>
+        <v>847.5115364327548</v>
       </c>
       <c r="O13" t="n">
-        <v>1040.400604995802</v>
+        <v>1040.400604995801</v>
       </c>
       <c r="P13" t="n">
         <v>1184.847502163548</v>
@@ -5224,25 +5224,25 @@
         <v>1097.326054260998</v>
       </c>
       <c r="S13" t="n">
-        <v>910.3329940319404</v>
+        <v>910.3329940319403</v>
       </c>
       <c r="T13" t="n">
-        <v>910.3329940319404</v>
+        <v>910.3329940319403</v>
       </c>
       <c r="U13" t="n">
-        <v>910.3329940319404</v>
+        <v>910.3329940319403</v>
       </c>
       <c r="V13" t="n">
-        <v>910.3329940319404</v>
+        <v>910.3329940319403</v>
       </c>
       <c r="W13" t="n">
-        <v>641.5418597790958</v>
+        <v>910.3329940319403</v>
       </c>
       <c r="X13" t="n">
-        <v>641.5418597790958</v>
+        <v>910.3329940319403</v>
       </c>
       <c r="Y13" t="n">
-        <v>482.4662612480532</v>
+        <v>710.1664506725261</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1379.057110433343</v>
+        <v>2209.282487989423</v>
       </c>
       <c r="C14" t="n">
-        <v>1030.720629277048</v>
+        <v>1860.946006833128</v>
       </c>
       <c r="D14" t="n">
-        <v>867.7330375979699</v>
+        <v>1523.306344010493</v>
       </c>
       <c r="E14" t="n">
-        <v>867.7330375979699</v>
+        <v>1158.144127196365</v>
       </c>
       <c r="F14" t="n">
-        <v>867.7330375979699</v>
+        <v>767.7842581908731</v>
       </c>
       <c r="G14" t="n">
-        <v>471.2484177558244</v>
+        <v>371.2996383487276</v>
       </c>
       <c r="H14" t="n">
-        <v>173.4170813661846</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="I14" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J14" t="n">
-        <v>260.2054441404289</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K14" t="n">
-        <v>660.8208179075386</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L14" t="n">
-        <v>1210.096241442437</v>
+        <v>1210.096241442436</v>
       </c>
       <c r="M14" t="n">
-        <v>1837.877529641656</v>
+        <v>1837.877529641655</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O14" t="n">
         <v>3004.568888469955</v>
@@ -5303,25 +5303,25 @@
         <v>3673.415097954389</v>
       </c>
       <c r="S14" t="n">
-        <v>3537.304858089304</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="T14" t="n">
-        <v>3343.030901807209</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="U14" t="n">
-        <v>3109.963404427462</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="V14" t="n">
-        <v>2799.526552868007</v>
+        <v>3629.751930424087</v>
       </c>
       <c r="W14" t="n">
-        <v>2467.383933382009</v>
+        <v>3297.609310938089</v>
       </c>
       <c r="X14" t="n">
-        <v>2114.544210905045</v>
+        <v>2944.769588461125</v>
       </c>
       <c r="Y14" t="n">
-        <v>1745.030914713349</v>
+        <v>2575.256292269429</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>1020.242840959544</v>
       </c>
       <c r="M15" t="n">
-        <v>1657.74891897556</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N15" t="n">
-        <v>1853.28594870546</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O15" t="n">
-        <v>2399.868030534049</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P15" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.402498082636</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>455.1441731098501</v>
+        <v>202.9589055873076</v>
       </c>
       <c r="C16" t="n">
-        <v>455.1441731098501</v>
+        <v>202.9589055873076</v>
       </c>
       <c r="D16" t="n">
-        <v>325.6535694816304</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="E16" t="n">
-        <v>325.6535694816304</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="F16" t="n">
-        <v>325.6535694816304</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="G16" t="n">
-        <v>177.6624998337882</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="H16" t="n">
-        <v>177.6624998337882</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="I16" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J16" t="n">
-        <v>75.45401965814357</v>
+        <v>75.45401965814349</v>
       </c>
       <c r="K16" t="n">
-        <v>195.5491741164734</v>
+        <v>195.5491741164733</v>
       </c>
       <c r="L16" t="n">
-        <v>399.1026573432035</v>
+        <v>399.1026573432034</v>
       </c>
       <c r="M16" t="n">
         <v>623.0114736459853</v>
       </c>
       <c r="N16" t="n">
-        <v>847.511536432755</v>
+        <v>847.5115364327548</v>
       </c>
       <c r="O16" t="n">
-        <v>1040.400604995802</v>
+        <v>1040.400604995801</v>
       </c>
       <c r="P16" t="n">
         <v>1184.847502163548</v>
@@ -5458,28 +5458,28 @@
         <v>1207.639325881398</v>
       </c>
       <c r="R16" t="n">
-        <v>1097.326054260998</v>
+        <v>1207.639325881398</v>
       </c>
       <c r="S16" t="n">
-        <v>1097.326054260998</v>
+        <v>1020.646265652341</v>
       </c>
       <c r="T16" t="n">
-        <v>1097.326054260998</v>
+        <v>815.5992647410895</v>
       </c>
       <c r="U16" t="n">
-        <v>1050.391597937159</v>
+        <v>798.2063304146164</v>
       </c>
       <c r="V16" t="n">
-        <v>816.333145515388</v>
+        <v>564.1478779928455</v>
       </c>
       <c r="W16" t="n">
-        <v>816.333145515388</v>
+        <v>564.1478779928455</v>
       </c>
       <c r="X16" t="n">
-        <v>816.333145515388</v>
+        <v>564.1478779928455</v>
       </c>
       <c r="Y16" t="n">
-        <v>616.1666021559738</v>
+        <v>363.9813346334313</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C17" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D17" t="n">
         <v>1313.197071096531</v>
@@ -5501,7 +5501,7 @@
         <v>1010.046464746615</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053352</v>
+        <v>681.6982062053348</v>
       </c>
       <c r="G17" t="n">
         <v>347.2251968274013</v>
@@ -5516,13 +5516,13 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K17" t="n">
-        <v>660.8208179075381</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L17" t="n">
-        <v>1210.096241442437</v>
+        <v>1210.096241442436</v>
       </c>
       <c r="M17" t="n">
-        <v>1837.877529641656</v>
+        <v>1837.877529641655</v>
       </c>
       <c r="N17" t="n">
         <v>2461.184977863255</v>
@@ -5552,13 +5552,13 @@
         <v>3047.572994724854</v>
       </c>
       <c r="W17" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X17" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y17" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="18">
@@ -5595,13 +5595,13 @@
         <v>190.9942848817978</v>
       </c>
       <c r="K18" t="n">
-        <v>256.6651674322115</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L18" t="n">
-        <v>758.4222563170915</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M18" t="n">
-        <v>997.851411488749</v>
+        <v>1472.400362088867</v>
       </c>
       <c r="N18" t="n">
         <v>1667.937391818767</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>409.6823481344555</v>
+        <v>556.6438483590759</v>
       </c>
       <c r="C19" t="n">
-        <v>323.3838114548765</v>
+        <v>470.3453116794969</v>
       </c>
       <c r="D19" t="n">
-        <v>255.9048182908686</v>
+        <v>402.8663185154889</v>
       </c>
       <c r="E19" t="n">
-        <v>190.6293709568033</v>
+        <v>337.5908711814236</v>
       </c>
       <c r="F19" t="n">
-        <v>126.3770697072208</v>
+        <v>273.3385699318411</v>
       </c>
       <c r="G19" t="n">
-        <v>115.6508893695765</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H19" t="n">
         <v>115.6508893695765</v>
@@ -5671,7 +5671,7 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J19" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741175</v>
       </c>
       <c r="K19" t="n">
         <v>317.1043329484212</v>
@@ -5680,7 +5680,7 @@
         <v>581.4353955911254</v>
       </c>
       <c r="M19" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N19" t="n">
         <v>1151.399433512625</v>
@@ -5695,7 +5695,7 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R19" t="n">
-        <v>1645.558300053002</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S19" t="n">
         <v>1520.576850288156</v>
@@ -5704,19 +5704,19 @@
         <v>1377.541459841117</v>
       </c>
       <c r="U19" t="n">
-        <v>1171.026370007451</v>
+        <v>1317.987870232071</v>
       </c>
       <c r="V19" t="n">
-        <v>998.9795280498922</v>
+        <v>1145.941028274512</v>
       </c>
       <c r="W19" t="n">
-        <v>792.2000042612594</v>
+        <v>939.1615044858795</v>
       </c>
       <c r="X19" t="n">
-        <v>646.8480996115699</v>
+        <v>793.80959983619</v>
       </c>
       <c r="Y19" t="n">
-        <v>508.6931667163674</v>
+        <v>655.6546669409878</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.197071096532</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E20" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053353</v>
+        <v>681.6982062053346</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274014</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H20" t="n">
         <v>111.4054709019728</v>
@@ -5750,13 +5750,13 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J20" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404292</v>
       </c>
       <c r="K20" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075389</v>
       </c>
       <c r="L20" t="n">
-        <v>1210.096241442436</v>
+        <v>1210.096241442437</v>
       </c>
       <c r="M20" t="n">
         <v>1837.877529641656</v>
@@ -5774,28 +5774,28 @@
         <v>3673.415097954389</v>
       </c>
       <c r="R20" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S20" t="n">
-        <v>3599.316468553516</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T20" t="n">
         <v>3467.054122735633</v>
       </c>
       <c r="U20" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V20" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X20" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y20" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5835,13 @@
         <v>518.4857520746643</v>
       </c>
       <c r="L21" t="n">
-        <v>653.1108991091197</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M21" t="n">
-        <v>1290.616977125136</v>
+        <v>1264.423847230376</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.154006855036</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O21" t="n">
         <v>2006.542958788865</v>
@@ -5908,16 +5908,16 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J22" t="n">
-        <v>136.2315990741174</v>
+        <v>136.2315990741175</v>
       </c>
       <c r="K22" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L22" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911255</v>
       </c>
       <c r="M22" t="n">
-        <v>866.1217913098812</v>
+        <v>866.1217913098814</v>
       </c>
       <c r="N22" t="n">
         <v>1151.399433512625</v>
@@ -5932,25 +5932,25 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R22" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S22" t="n">
-        <v>1520.576850288156</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="T22" t="n">
-        <v>1377.541459841117</v>
+        <v>1524.502960065737</v>
       </c>
       <c r="U22" t="n">
-        <v>1171.026370007451</v>
+        <v>1317.987870232071</v>
       </c>
       <c r="V22" t="n">
         <v>1145.941028274512</v>
       </c>
       <c r="W22" t="n">
-        <v>939.1615044858793</v>
+        <v>939.1615044858794</v>
       </c>
       <c r="X22" t="n">
-        <v>793.8095998361897</v>
+        <v>793.8095998361899</v>
       </c>
       <c r="Y22" t="n">
         <v>655.6546669409877</v>
@@ -5969,19 +5969,19 @@
         <v>1588.825123454954</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.197071096532</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E23" t="n">
         <v>1010.046464746615</v>
       </c>
       <c r="F23" t="n">
-        <v>681.6982062053351</v>
+        <v>681.6982062053348</v>
       </c>
       <c r="G23" t="n">
-        <v>347.225196827401</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H23" t="n">
-        <v>111.4054709019729</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I23" t="n">
         <v>73.46830195908777</v>
@@ -6011,28 +6011,28 @@
         <v>3673.415097954388</v>
       </c>
       <c r="R23" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="S23" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553516</v>
       </c>
       <c r="T23" t="n">
-        <v>3467.054122735632</v>
+        <v>3467.054122735633</v>
       </c>
       <c r="U23" t="n">
-        <v>3295.998235820099</v>
+        <v>3295.998235820097</v>
       </c>
       <c r="V23" t="n">
-        <v>3047.572994724856</v>
+        <v>3047.572994724854</v>
       </c>
       <c r="W23" t="n">
-        <v>2777.441985703069</v>
+        <v>2777.441985703068</v>
       </c>
       <c r="X23" t="n">
-        <v>2486.613873690317</v>
+        <v>2486.613873690316</v>
       </c>
       <c r="Y23" t="n">
-        <v>2179.112187962833</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J24" t="n">
-        <v>190.9942848817978</v>
+        <v>174.0919717329583</v>
       </c>
       <c r="K24" t="n">
-        <v>518.4857520746643</v>
+        <v>501.5834389258247</v>
       </c>
       <c r="L24" t="n">
-        <v>1020.242840959544</v>
+        <v>1003.340527810705</v>
       </c>
       <c r="M24" t="n">
-        <v>1579.701988183914</v>
+        <v>1179.798592714221</v>
       </c>
       <c r="N24" t="n">
-        <v>1775.239017913814</v>
+        <v>1849.884573044239</v>
       </c>
       <c r="O24" t="n">
-        <v>2321.821099742403</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P24" t="n">
         <v>2428.220199306442</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>556.6438483590765</v>
+        <v>556.6438483590762</v>
       </c>
       <c r="C25" t="n">
-        <v>470.3453116794973</v>
+        <v>470.3453116794971</v>
       </c>
       <c r="D25" t="n">
-        <v>402.8663185154894</v>
+        <v>402.8663185154892</v>
       </c>
       <c r="E25" t="n">
         <v>337.5908711814239</v>
@@ -6136,7 +6136,7 @@
         <v>273.3385699318413</v>
       </c>
       <c r="G25" t="n">
-        <v>187.359110748211</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H25" t="n">
         <v>115.6508893695765</v>
@@ -6145,13 +6145,13 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J25" t="n">
-        <v>136.2315990741174</v>
+        <v>136.2315990741175</v>
       </c>
       <c r="K25" t="n">
-        <v>317.1043329484212</v>
+        <v>317.1043329484213</v>
       </c>
       <c r="L25" t="n">
-        <v>581.4353955911251</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M25" t="n">
         <v>866.121791309881</v>
@@ -6166,10 +6166,10 @@
         <v>1610.290558075365</v>
       </c>
       <c r="Q25" t="n">
-        <v>1693.859961209189</v>
+        <v>1693.85996120919</v>
       </c>
       <c r="R25" t="n">
-        <v>1645.558300053</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S25" t="n">
         <v>1520.576850288155</v>
@@ -6178,19 +6178,19 @@
         <v>1377.541459841116</v>
       </c>
       <c r="U25" t="n">
-        <v>1171.02637000745</v>
+        <v>1317.987870232072</v>
       </c>
       <c r="V25" t="n">
-        <v>1007.786095379311</v>
+        <v>1145.941028274513</v>
       </c>
       <c r="W25" t="n">
-        <v>801.0065715906782</v>
+        <v>939.1615044858802</v>
       </c>
       <c r="X25" t="n">
-        <v>655.6546669409885</v>
+        <v>793.8095998361905</v>
       </c>
       <c r="Y25" t="n">
-        <v>655.6546669409885</v>
+        <v>655.6546669409881</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>111.4054709019728</v>
       </c>
       <c r="I26" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J26" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K26" t="n">
-        <v>660.8208179075382</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L26" t="n">
         <v>1210.096241442436</v>
@@ -6245,10 +6245,10 @@
         <v>3430.660101634156</v>
       </c>
       <c r="Q26" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R26" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S26" t="n">
         <v>3599.316468553515</v>
@@ -6300,19 +6300,19 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I27" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J27" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K27" t="n">
-        <v>256.6651674322115</v>
+        <v>400.9597691519542</v>
       </c>
       <c r="L27" t="n">
-        <v>758.4222563170914</v>
+        <v>902.7168580368341</v>
       </c>
       <c r="M27" t="n">
-        <v>934.8803212206074</v>
+        <v>1264.423847230376</v>
       </c>
       <c r="N27" t="n">
         <v>1459.960876960276</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.6823481344553</v>
+        <v>409.6823481344559</v>
       </c>
       <c r="C28" t="n">
-        <v>323.3838114548763</v>
+        <v>409.6823481344559</v>
       </c>
       <c r="D28" t="n">
-        <v>323.3838114548763</v>
+        <v>402.8663185154884</v>
       </c>
       <c r="E28" t="n">
-        <v>258.108364120811</v>
+        <v>337.5908711814232</v>
       </c>
       <c r="F28" t="n">
-        <v>201.6303485532068</v>
+        <v>273.338569931841</v>
       </c>
       <c r="G28" t="n">
-        <v>115.6508893695765</v>
+        <v>187.3591107482107</v>
       </c>
       <c r="H28" t="n">
         <v>115.6508893695765</v>
       </c>
       <c r="I28" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J28" t="n">
         <v>136.2315990741175</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484212</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L28" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911256</v>
       </c>
       <c r="M28" t="n">
         <v>866.1217913098812</v>
@@ -6418,16 +6418,16 @@
         <v>1171.026370007451</v>
       </c>
       <c r="V28" t="n">
-        <v>998.979528049892</v>
+        <v>998.9795280498922</v>
       </c>
       <c r="W28" t="n">
-        <v>792.2000042612592</v>
+        <v>792.2000042612594</v>
       </c>
       <c r="X28" t="n">
-        <v>646.8480996115698</v>
+        <v>646.84809961157</v>
       </c>
       <c r="Y28" t="n">
-        <v>508.6931667163672</v>
+        <v>508.6931667163678</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1875.149994147037</v>
+        <v>1875.149994147038</v>
       </c>
       <c r="C29" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D29" t="n">
         <v>1313.197071096531</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053344</v>
+        <v>681.6982062053348</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274004</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H29" t="n">
-        <v>111.4054709019729</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I29" t="n">
         <v>73.46830195908778</v>
@@ -6488,7 +6488,7 @@
         <v>3673.415097954389</v>
       </c>
       <c r="S29" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553516</v>
       </c>
       <c r="T29" t="n">
         <v>3467.054122735633</v>
@@ -6503,10 +6503,10 @@
         <v>2777.441985703068</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.613873690315</v>
+        <v>2486.613873690316</v>
       </c>
       <c r="Y29" t="n">
-        <v>2179.112187962831</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>256.6651674322115</v>
       </c>
       <c r="L30" t="n">
-        <v>758.4222563170914</v>
+        <v>391.2903144666668</v>
       </c>
       <c r="M30" t="n">
-        <v>1179.798592714221</v>
+        <v>1028.796392482683</v>
       </c>
       <c r="N30" t="n">
-        <v>1849.884573044239</v>
+        <v>1698.882372812701</v>
       </c>
       <c r="O30" t="n">
-        <v>2006.542958788865</v>
+        <v>2245.46445464129</v>
       </c>
       <c r="P30" t="n">
         <v>2428.220199306442</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>428.4818017649573</v>
+        <v>409.6823481344552</v>
       </c>
       <c r="C31" t="n">
-        <v>342.1832650853781</v>
+        <v>409.6823481344552</v>
       </c>
       <c r="D31" t="n">
-        <v>274.7042719213702</v>
+        <v>402.8663185154888</v>
       </c>
       <c r="E31" t="n">
-        <v>209.4288245873048</v>
+        <v>337.5908711814236</v>
       </c>
       <c r="F31" t="n">
-        <v>145.1765233377222</v>
+        <v>273.338569931841</v>
       </c>
       <c r="G31" t="n">
-        <v>145.1765233377222</v>
+        <v>187.3591107482107</v>
       </c>
       <c r="H31" t="n">
-        <v>73.46830195908778</v>
+        <v>115.6508893695765</v>
       </c>
       <c r="I31" t="n">
         <v>73.46830195908778</v>
@@ -6622,22 +6622,22 @@
         <v>136.2315990741175</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1043329484212</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L31" t="n">
-        <v>581.4353955911253</v>
+        <v>581.4353955911255</v>
       </c>
       <c r="M31" t="n">
-        <v>866.121791309881</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N31" t="n">
-        <v>1151.399433512624</v>
+        <v>1151.399433512625</v>
       </c>
       <c r="O31" t="n">
         <v>1405.066081491645</v>
       </c>
       <c r="P31" t="n">
-        <v>1610.290558075365</v>
+        <v>1610.290558075366</v>
       </c>
       <c r="Q31" t="n">
         <v>1693.85996120919</v>
@@ -6646,25 +6646,25 @@
         <v>1645.558300053001</v>
       </c>
       <c r="S31" t="n">
-        <v>1520.576850288155</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T31" t="n">
-        <v>1377.541459841116</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U31" t="n">
-        <v>1171.02637000745</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V31" t="n">
-        <v>998.9795280498913</v>
+        <v>998.979528049892</v>
       </c>
       <c r="W31" t="n">
-        <v>792.2000042612585</v>
+        <v>792.2000042612592</v>
       </c>
       <c r="X31" t="n">
-        <v>665.6475532420711</v>
+        <v>646.8480996115698</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.4926203468692</v>
+        <v>508.693166716367</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1834.225496848615</v>
+        <v>1831.999994919983</v>
       </c>
       <c r="C32" t="n">
-        <v>1554.064911760396</v>
+        <v>1551.839409831764</v>
       </c>
       <c r="D32" t="n">
-        <v>1284.601145005838</v>
+        <v>1282.375643077207</v>
       </c>
       <c r="E32" t="n">
-        <v>987.6148242597867</v>
+        <v>985.389322331155</v>
       </c>
       <c r="F32" t="n">
-        <v>665.4308513223718</v>
+        <v>663.2053493937401</v>
       </c>
       <c r="G32" t="n">
-        <v>337.1221275483027</v>
+        <v>334.8966256196711</v>
       </c>
       <c r="H32" t="n">
-        <v>107.4666872267395</v>
+        <v>105.241185298108</v>
       </c>
       <c r="I32" t="n">
         <v>73.46830195908777</v>
       </c>
       <c r="J32" t="n">
-        <v>260.2054441404284</v>
+        <v>260.205444140428</v>
       </c>
       <c r="K32" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075376</v>
       </c>
       <c r="L32" t="n">
         <v>1210.096241442436</v>
@@ -6734,16 +6734,16 @@
         <v>3313.054242354543</v>
       </c>
       <c r="V32" t="n">
-        <v>3070.793286863165</v>
+        <v>2981.991355010972</v>
       </c>
       <c r="W32" t="n">
-        <v>2806.826563445243</v>
+        <v>2715.799129664419</v>
       </c>
       <c r="X32" t="n">
-        <v>2522.162737036356</v>
+        <v>2431.135303255532</v>
       </c>
       <c r="Y32" t="n">
-        <v>2220.825336912737</v>
+        <v>2129.797903131913</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J33" t="n">
-        <v>182.8410581214018</v>
+        <v>190.9942848817978</v>
       </c>
       <c r="K33" t="n">
-        <v>248.5119406718155</v>
+        <v>256.6651674322115</v>
       </c>
       <c r="L33" t="n">
-        <v>750.2690295566954</v>
+        <v>391.2903144666668</v>
       </c>
       <c r="M33" t="n">
-        <v>1387.775107572711</v>
+        <v>1028.796392482683</v>
       </c>
       <c r="N33" t="n">
-        <v>2057.861087902729</v>
+        <v>1698.882372812701</v>
       </c>
       <c r="O33" t="n">
-        <v>2214.519473647356</v>
+        <v>2245.46445464129</v>
       </c>
       <c r="P33" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q33" t="n">
         <v>2657.402498082636</v>
@@ -6856,16 +6856,16 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2732153944655</v>
+        <v>142.2732153944654</v>
       </c>
       <c r="K34" t="n">
-        <v>329.1875655891172</v>
+        <v>329.187565589117</v>
       </c>
       <c r="L34" t="n">
-        <v>599.5602445521693</v>
+        <v>599.560244552169</v>
       </c>
       <c r="M34" t="n">
-        <v>890.288256591273</v>
+        <v>890.2882565912728</v>
       </c>
       <c r="N34" t="n">
         <v>1181.607515114364</v>
@@ -6898,7 +6898,7 @@
         <v>877.5186484472314</v>
       </c>
       <c r="X34" t="n">
-        <v>738.3310294014067</v>
+        <v>738.3310294014066</v>
       </c>
       <c r="Y34" t="n">
         <v>606.3403821100692</v>
@@ -6923,16 +6923,16 @@
         <v>983.5022961258906</v>
       </c>
       <c r="F35" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884756</v>
       </c>
       <c r="G35" t="n">
-        <v>333.0095994144066</v>
+        <v>333.0095994144065</v>
       </c>
       <c r="H35" t="n">
-        <v>103.3541590928434</v>
+        <v>103.3541590928433</v>
       </c>
       <c r="I35" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J35" t="n">
         <v>258.3184179351637</v>
@@ -6944,31 +6944,31 @@
         <v>1208.209215237171</v>
       </c>
       <c r="M35" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378419</v>
       </c>
       <c r="N35" t="n">
-        <v>2459.297951657989</v>
+        <v>2366.833667600018</v>
       </c>
       <c r="O35" t="n">
-        <v>3002.68186226469</v>
+        <v>2910.217578206718</v>
       </c>
       <c r="P35" t="n">
-        <v>3428.773075428891</v>
+        <v>3336.30879137092</v>
       </c>
       <c r="Q35" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="R35" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="S35" t="n">
-        <v>3511.129443894145</v>
+        <v>3511.129443894144</v>
       </c>
       <c r="T35" t="n">
-        <v>3385.031383680127</v>
+        <v>3385.031383680126</v>
       </c>
       <c r="U35" t="n">
-        <v>3220.139782368455</v>
+        <v>3220.139782368454</v>
       </c>
       <c r="V35" t="n">
         <v>2977.878826877076</v>
@@ -6980,7 +6980,7 @@
         <v>2429.248277050267</v>
       </c>
       <c r="Y35" t="n">
-        <v>2127.910876926649</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I36" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J36" t="n">
         <v>189.1072586765331</v>
       </c>
       <c r="K36" t="n">
-        <v>516.5987258693996</v>
+        <v>254.7781412269467</v>
       </c>
       <c r="L36" t="n">
-        <v>1018.355814754279</v>
+        <v>389.4032882614021</v>
       </c>
       <c r="M36" t="n">
-        <v>1652.460517109074</v>
+        <v>1026.909366277418</v>
       </c>
       <c r="N36" t="n">
-        <v>1847.997546838974</v>
+        <v>1696.995346607436</v>
       </c>
       <c r="O36" t="n">
-        <v>2004.655932583601</v>
+        <v>2243.577428436025</v>
       </c>
       <c r="P36" t="n">
         <v>2426.333173101178</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.6068229267582</v>
+        <v>511.6068229267573</v>
       </c>
       <c r="C37" t="n">
-        <v>431.4725718510438</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D37" t="n">
-        <v>370.1578642909006</v>
+        <v>370.1578642908999</v>
       </c>
       <c r="E37" t="n">
-        <v>311.0467025607001</v>
+        <v>311.0467025606994</v>
       </c>
       <c r="F37" t="n">
-        <v>252.9586869149823</v>
+        <v>252.9586869149817</v>
       </c>
       <c r="G37" t="n">
-        <v>173.1435133352167</v>
+        <v>173.1435133352162</v>
       </c>
       <c r="H37" t="n">
-        <v>107.5995775604471</v>
+        <v>107.5995775604467</v>
       </c>
       <c r="I37" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J37" t="n">
         <v>140.3861891892006</v>
       </c>
       <c r="K37" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L37" t="n">
-        <v>597.6732183469042</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M37" t="n">
-        <v>888.4012303860078</v>
+        <v>888.4012303860079</v>
       </c>
       <c r="N37" t="n">
         <v>1179.720488909099</v>
       </c>
       <c r="O37" t="n">
-        <v>1439.428753208467</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P37" t="n">
-        <v>1650.694846112538</v>
+        <v>1650.694846112536</v>
       </c>
       <c r="Q37" t="n">
-        <v>1740.30586556671</v>
+        <v>1740.305865566708</v>
       </c>
       <c r="R37" t="n">
-        <v>1698.168490014386</v>
+        <v>1698.168490014384</v>
       </c>
       <c r="S37" t="n">
-        <v>1579.351325853405</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T37" t="n">
-        <v>1442.480221010231</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U37" t="n">
-        <v>1242.12941678043</v>
+        <v>1242.129416780429</v>
       </c>
       <c r="V37" t="n">
-        <v>1076.246860426736</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6316222419676</v>
+        <v>875.6316222419666</v>
       </c>
       <c r="X37" t="n">
-        <v>736.4440031961428</v>
+        <v>736.4440031961418</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.4533559048053</v>
+        <v>604.4533559048043</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>661.3183231884755</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0095994144064</v>
+        <v>333.0095994144065</v>
       </c>
       <c r="H38" t="n">
         <v>103.3541590928433</v>
@@ -7172,19 +7172,19 @@
         <v>71.58127575382305</v>
       </c>
       <c r="J38" t="n">
-        <v>258.3184179351637</v>
+        <v>258.3184179351636</v>
       </c>
       <c r="K38" t="n">
-        <v>658.9337917022733</v>
+        <v>566.4695076443032</v>
       </c>
       <c r="L38" t="n">
-        <v>1208.209215237172</v>
+        <v>1115.744931179201</v>
       </c>
       <c r="M38" t="n">
-        <v>1743.526219378419</v>
+        <v>1743.52621937842</v>
       </c>
       <c r="N38" t="n">
-        <v>2366.833667600018</v>
+        <v>2366.833667600019</v>
       </c>
       <c r="O38" t="n">
         <v>2910.217578206718</v>
@@ -7211,7 +7211,7 @@
         <v>2977.878826877076</v>
       </c>
       <c r="W38" t="n">
-        <v>2713.912103459155</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X38" t="n">
         <v>2429.248277050267</v>
@@ -7251,25 +7251,25 @@
         <v>71.58127575382305</v>
       </c>
       <c r="J39" t="n">
-        <v>71.58127575382305</v>
+        <v>189.107258676533</v>
       </c>
       <c r="K39" t="n">
-        <v>317.7492314950883</v>
+        <v>353.9265405615985</v>
       </c>
       <c r="L39" t="n">
-        <v>819.5063203799683</v>
+        <v>855.6836294464782</v>
       </c>
       <c r="M39" t="n">
-        <v>995.9643852834844</v>
+        <v>1493.189707462494</v>
       </c>
       <c r="N39" t="n">
-        <v>1666.050365613502</v>
+        <v>2163.275687792512</v>
       </c>
       <c r="O39" t="n">
-        <v>2212.632447442091</v>
+        <v>2319.934073537138</v>
       </c>
       <c r="P39" t="n">
-        <v>2634.309687959668</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q39" t="n">
         <v>2655.515471877372</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2350.364745051202</v>
+        <v>511.6068229267574</v>
       </c>
       <c r="C40" t="n">
-        <v>2270.230493975487</v>
+        <v>431.4725718510432</v>
       </c>
       <c r="D40" t="n">
-        <v>2208.915786415344</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E40" t="n">
-        <v>2149.804624685144</v>
+        <v>311.0467025606997</v>
       </c>
       <c r="F40" t="n">
-        <v>2091.716609039426</v>
+        <v>252.958686914982</v>
       </c>
       <c r="G40" t="n">
-        <v>2011.90143545966</v>
+        <v>173.1435133352165</v>
       </c>
       <c r="H40" t="n">
-        <v>1946.357499684891</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I40" t="n">
-        <v>1910.339197878267</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J40" t="n">
-        <v>1979.144111313645</v>
+        <v>140.3861891892008</v>
       </c>
       <c r="K40" t="n">
-        <v>2166.058461508296</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L40" t="n">
-        <v>2436.431140471348</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M40" t="n">
-        <v>2727.159152510452</v>
+        <v>888.4012303860079</v>
       </c>
       <c r="N40" t="n">
-        <v>3018.478411033543</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O40" t="n">
-        <v>3278.186675332912</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P40" t="n">
-        <v>3489.45276823698</v>
+        <v>1650.694846112536</v>
       </c>
       <c r="Q40" t="n">
-        <v>3579.063787691152</v>
+        <v>1740.305865566708</v>
       </c>
       <c r="R40" t="n">
-        <v>3536.926412138829</v>
+        <v>1698.168490014384</v>
       </c>
       <c r="S40" t="n">
-        <v>3418.109247977848</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T40" t="n">
-        <v>3281.238143134674</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U40" t="n">
-        <v>3080.887338904873</v>
+        <v>1242.129416780429</v>
       </c>
       <c r="V40" t="n">
-        <v>2915.004782551178</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W40" t="n">
-        <v>2714.389544366411</v>
+        <v>875.6316222419666</v>
       </c>
       <c r="X40" t="n">
-        <v>2575.201925320586</v>
+        <v>736.4440031961419</v>
       </c>
       <c r="Y40" t="n">
-        <v>2443.211278029249</v>
+        <v>604.4533559048045</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1830.11296871472</v>
+        <v>1830.112968714719</v>
       </c>
       <c r="C41" t="n">
         <v>1549.9523836265</v>
@@ -7394,13 +7394,13 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E41" t="n">
-        <v>983.5022961258908</v>
+        <v>983.5022961258903</v>
       </c>
       <c r="F41" t="n">
-        <v>661.3183231884758</v>
+        <v>661.3183231884755</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0095994144067</v>
+        <v>333.0095994144064</v>
       </c>
       <c r="H41" t="n">
         <v>103.3541590928433</v>
@@ -7415,16 +7415,16 @@
         <v>658.9337917022733</v>
       </c>
       <c r="L41" t="n">
-        <v>1208.209215237171</v>
+        <v>1208.209215237172</v>
       </c>
       <c r="M41" t="n">
-        <v>1743.526219378419</v>
+        <v>1835.990503436391</v>
       </c>
       <c r="N41" t="n">
-        <v>2366.833667600018</v>
+        <v>2459.29795165799</v>
       </c>
       <c r="O41" t="n">
-        <v>2910.217578206718</v>
+        <v>3002.68186226469</v>
       </c>
       <c r="P41" t="n">
         <v>3336.30879137092</v>
@@ -7442,19 +7442,19 @@
         <v>3385.031383680126</v>
       </c>
       <c r="U41" t="n">
-        <v>3220.139782368455</v>
+        <v>3220.139782368454</v>
       </c>
       <c r="V41" t="n">
-        <v>2977.878826877077</v>
+        <v>2977.878826877076</v>
       </c>
       <c r="W41" t="n">
         <v>2713.912103459155</v>
       </c>
       <c r="X41" t="n">
-        <v>2429.248277050268</v>
+        <v>2429.248277050267</v>
       </c>
       <c r="Y41" t="n">
-        <v>2127.910876926649</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>189.1072586765331</v>
       </c>
       <c r="K42" t="n">
-        <v>254.7781412269467</v>
+        <v>438.5517950777535</v>
       </c>
       <c r="L42" t="n">
-        <v>756.5352301118266</v>
+        <v>940.3088839626334</v>
       </c>
       <c r="M42" t="n">
-        <v>1394.041308127843</v>
+        <v>1577.81496197865</v>
       </c>
       <c r="N42" t="n">
-        <v>2064.12728845786</v>
+        <v>1773.35199170855</v>
       </c>
       <c r="O42" t="n">
-        <v>2527.910588395629</v>
+        <v>2319.934073537138</v>
       </c>
       <c r="P42" t="n">
-        <v>2634.309687959668</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q42" t="n">
         <v>2655.515471877372</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.6068229267573</v>
+        <v>511.6068229267576</v>
       </c>
       <c r="C43" t="n">
-        <v>431.472571851043</v>
+        <v>431.4725718510433</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642908999</v>
+        <v>370.1578642909002</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606994</v>
+        <v>311.0467025606997</v>
       </c>
       <c r="F43" t="n">
-        <v>252.9586869149816</v>
+        <v>252.958686914982</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1435133352161</v>
+        <v>173.1435133352165</v>
       </c>
       <c r="H43" t="n">
-        <v>107.5995775604465</v>
+        <v>107.599577560447</v>
       </c>
       <c r="I43" t="n">
         <v>71.58127575382305</v>
       </c>
       <c r="J43" t="n">
-        <v>140.3861891892006</v>
+        <v>140.3861891892007</v>
       </c>
       <c r="K43" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469043</v>
+        <v>597.673218346904</v>
       </c>
       <c r="M43" t="n">
-        <v>888.4012303860078</v>
+        <v>888.4012303860079</v>
       </c>
       <c r="N43" t="n">
         <v>1179.720488909099</v>
       </c>
       <c r="O43" t="n">
-        <v>1439.428753208467</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P43" t="n">
         <v>1650.694846112536</v>
@@ -7612,7 +7612,7 @@
         <v>736.4440031961419</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.4533559048044</v>
+        <v>604.4533559048047</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E44" t="n">
-        <v>983.5022961258903</v>
+        <v>983.5022961258901</v>
       </c>
       <c r="F44" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884752</v>
       </c>
       <c r="G44" t="n">
         <v>333.0095994144064</v>
@@ -7652,13 +7652,13 @@
         <v>658.9337917022733</v>
       </c>
       <c r="L44" t="n">
-        <v>1208.209215237171</v>
+        <v>1115.7449311792</v>
       </c>
       <c r="M44" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378419</v>
       </c>
       <c r="N44" t="n">
-        <v>2459.297951657989</v>
+        <v>2366.833667600018</v>
       </c>
       <c r="O44" t="n">
         <v>2910.217578206718</v>
@@ -7731,16 +7731,16 @@
         <v>516.5987258693996</v>
       </c>
       <c r="L45" t="n">
-        <v>748.3820033514307</v>
+        <v>673.7364482210064</v>
       </c>
       <c r="M45" t="n">
-        <v>1385.888081367447</v>
+        <v>1311.242526237022</v>
       </c>
       <c r="N45" t="n">
-        <v>2055.974061697465</v>
+        <v>1981.32850656704</v>
       </c>
       <c r="O45" t="n">
-        <v>2212.632447442091</v>
+        <v>2527.910588395629</v>
       </c>
       <c r="P45" t="n">
         <v>2634.309687959668</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.606822926757</v>
+        <v>511.6068229267573</v>
       </c>
       <c r="C46" t="n">
-        <v>431.4725718510427</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642908997</v>
+        <v>370.1578642909</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606993</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F46" t="n">
-        <v>252.9586869149816</v>
+        <v>252.9586869149818</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1435133352161</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H46" t="n">
-        <v>107.5995775604466</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I46" t="n">
         <v>71.58127575382305</v>
@@ -7807,28 +7807,28 @@
         <v>140.3861891892007</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838525</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469039</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M46" t="n">
-        <v>888.4012303860077</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N46" t="n">
         <v>1179.720488909099</v>
       </c>
       <c r="O46" t="n">
-        <v>1439.428753208467</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P46" t="n">
         <v>1650.694846112536</v>
       </c>
       <c r="Q46" t="n">
-        <v>1740.305865566708</v>
+        <v>1740.305865566709</v>
       </c>
       <c r="R46" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S46" t="n">
         <v>1579.351325853404</v>
@@ -7840,16 +7840,16 @@
         <v>1242.129416780429</v>
       </c>
       <c r="V46" t="n">
-        <v>1076.246860426734</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W46" t="n">
-        <v>875.6316222419663</v>
+        <v>875.6316222419666</v>
       </c>
       <c r="X46" t="n">
-        <v>736.4440031961416</v>
+        <v>736.4440031961419</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048041</v>
+        <v>604.4533559048043</v>
       </c>
     </row>
   </sheetData>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.37792127706534</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>92.25540709893966</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>68.40701148213711</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>68.40701148213711</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>131.2420041079233</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>63.60716188701153</v>
+        <v>278.4842992179866</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720746</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>68.40701148213751</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>367.4046123123261</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>109.0179917557224</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>386.8697801220747</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>187.1201255454812</v>
       </c>
       <c r="N27" t="n">
-        <v>332.8722484947164</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10194,19 +10194,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>247.3921934278922</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>77.12792434455898</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>117.8554527541502</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>77.12792434455898</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>356.1152667676089</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>118.9167239346816</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>462.2693307588672</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>77.12792434455898</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>230.7471458459427</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>356.1152667676085</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>7.377921277065369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>182.3202759503552</v>
+        <v>100.1498983178303</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>356.1152667676089</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>228.4004414462585</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>185.6299533846532</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>310.2271860536788</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>324.2629478252268</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>287.401914537522</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>98.13952570462203</v>
+        <v>22.73997506782976</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,10 +11388,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>344.8531163447327</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>386.4562703154366</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>98.94929161302591</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>91.52260161143505</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>192.3312167192738</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>230.7368224059508</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>307.3324830438601</v>
       </c>
       <c r="W11" t="n">
-        <v>189.5630287333753</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.4122047556625</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.827045672353</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1956975919375</v>
+        <v>128.1956975919376</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.0141872202944</v>
       </c>
       <c r="F13" t="n">
-        <v>125.0012725966564</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>79.80314827414963</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1522558959535</v>
+        <v>103.1522558959536</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>202.9965309021384</v>
+        <v>202.9965309021385</v>
       </c>
       <c r="U13" t="n">
         <v>265.8414332948986</v>
@@ -23476,13 +23476,13 @@
         <v>231.7178678975532</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>266.1032229103162</v>
       </c>
       <c r="X13" t="n">
-        <v>205.2898799627623</v>
+        <v>205.2898799627624</v>
       </c>
       <c r="Y13" t="n">
-        <v>40.68003538008773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>172.9055504321211</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>361.5105946459869</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>386.4562703154366</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>98.94929161302591</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.7491374664342</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.3312167192738</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>230.7368224059508</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>264.1059471888612</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>146.827045672353</v>
+        <v>146.8270456723531</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>126.0141872202943</v>
+        <v>126.0141872202944</v>
       </c>
       <c r="F16" t="n">
-        <v>125.0012725966564</v>
+        <v>125.0012725966565</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>146.5111589513638</v>
       </c>
       <c r="H16" t="n">
         <v>132.3826335244177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.1522558959536</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.2101389041964</v>
       </c>
       <c r="S16" t="n">
-        <v>185.1231296267669</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>202.9965309021384</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>219.3763215342978</v>
+        <v>248.6224283116903</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>266.1032229103162</v>
       </c>
       <c r="X16" t="n">
-        <v>205.2898799627623</v>
+        <v>205.2898799627624</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>74.50074605752633</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.99113916484797</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>145.4918852223736</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>21.76024995517645</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>145.4918852223732</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>145.4918852223752</v>
       </c>
       <c r="V25" t="n">
-        <v>8.71850165612608</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.7733835662503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>85.43555131278328</v>
       </c>
       <c r="D28" t="n">
-        <v>66.80420323236781</v>
+        <v>60.05633390958997</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>7.696542825158642</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484798</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>85.43555131278328</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>60.0563339095911</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>85.11966459179406</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76076153638388</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>18.61145909419714</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1253838.329095456</v>
+        <v>1253838.329095455</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>35456.07921120787</v>
+        <v>35456.07921120786</v>
       </c>
       <c r="F2" t="n">
-        <v>35456.07921120787</v>
+        <v>35456.07921120785</v>
       </c>
       <c r="G2" t="n">
         <v>40877.49823094729</v>
@@ -26332,25 +26332,25 @@
         <v>40877.49823094731</v>
       </c>
       <c r="I2" t="n">
-        <v>40877.49823094733</v>
+        <v>40877.4982309473</v>
       </c>
       <c r="J2" t="n">
+        <v>40877.49823094731</v>
+      </c>
+      <c r="K2" t="n">
         <v>40877.49823094729</v>
       </c>
-      <c r="K2" t="n">
-        <v>40877.49823094728</v>
-      </c>
       <c r="L2" t="n">
-        <v>41052.08849321413</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321416</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690849.4200146754</v>
+        <v>690849.4200146752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49113.19548765576</v>
+        <v>49113.19548765582</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012618</v>
+        <v>79395.76294012609</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034101991</v>
+        <v>16335.82034101982</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>69666.91563581256</v>
+        <v>69666.91563581249</v>
       </c>
       <c r="F4" t="n">
-        <v>69666.91563581256</v>
+        <v>69666.91563581249</v>
       </c>
       <c r="G4" t="n">
         <v>131705.8277358468</v>
@@ -26442,7 +26442,7 @@
         <v>131705.8277358468</v>
       </c>
       <c r="K4" t="n">
-        <v>131705.8277358467</v>
+        <v>131705.8277358468</v>
       </c>
       <c r="L4" t="n">
         <v>133713.9013283007</v>
@@ -26451,10 +26451,10 @@
         <v>136746.5002105249</v>
       </c>
       <c r="N4" t="n">
+        <v>136746.5002105251</v>
+      </c>
+      <c r="O4" t="n">
         <v>136746.500210525</v>
-      </c>
-      <c r="O4" t="n">
-        <v>136746.5002105249</v>
       </c>
       <c r="P4" t="n">
         <v>136746.500210525</v>
@@ -26476,10 +26476,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70367.5597300794</v>
+        <v>70367.55973007939</v>
       </c>
       <c r="F5" t="n">
-        <v>70367.5597300794</v>
+        <v>70367.55973007939</v>
       </c>
       <c r="G5" t="n">
         <v>75528.68126939406</v>
@@ -26494,7 +26494,7 @@
         <v>75528.68126939404</v>
       </c>
       <c r="K5" t="n">
-        <v>75528.68126939404</v>
+        <v>75528.68126939406</v>
       </c>
       <c r="L5" t="n">
         <v>76041.72434256104</v>
@@ -26528,25 +26528,25 @@
         <v>-336559.7118325415</v>
       </c>
       <c r="E6" t="n">
-        <v>-795427.8161693594</v>
+        <v>-795707.6166334596</v>
       </c>
       <c r="F6" t="n">
-        <v>-104578.3961546841</v>
+        <v>-104858.1966187843</v>
       </c>
       <c r="G6" t="n">
-        <v>-215470.2062619493</v>
+        <v>-215478.9357750627</v>
       </c>
       <c r="H6" t="n">
-        <v>-166357.0107742936</v>
+        <v>-166365.7402874069</v>
       </c>
       <c r="I6" t="n">
-        <v>-166357.0107742935</v>
+        <v>-166365.7402874068</v>
       </c>
       <c r="J6" t="n">
-        <v>-245752.7737144197</v>
+        <v>-245761.503227533</v>
       </c>
       <c r="K6" t="n">
-        <v>-166357.0107742935</v>
+        <v>-166365.7402874069</v>
       </c>
       <c r="L6" t="n">
         <v>-222698.8468635643</v>
@@ -26555,7 +26555,7 @@
         <v>-333219.524335349</v>
       </c>
       <c r="N6" t="n">
-        <v>-170301.9961438707</v>
+        <v>-170301.9961438708</v>
       </c>
       <c r="O6" t="n">
         <v>-186637.8164848905</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="F2" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="G2" t="n">
         <v>81.81126978584454</v>
       </c>
       <c r="H2" t="n">
+        <v>81.81126978584457</v>
+      </c>
+      <c r="I2" t="n">
+        <v>81.81126978584452</v>
+      </c>
+      <c r="J2" t="n">
         <v>81.81126978584456</v>
       </c>
-      <c r="I2" t="n">
-        <v>81.81126978584444</v>
-      </c>
-      <c r="J2" t="n">
-        <v>81.81126978584454</v>
-      </c>
       <c r="K2" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="L2" t="n">
+        <v>87.91391253367071</v>
+      </c>
+      <c r="M2" t="n">
+        <v>87.91391253367068</v>
+      </c>
+      <c r="N2" t="n">
+        <v>87.91391253367074</v>
+      </c>
+      <c r="O2" t="n">
         <v>87.9139125336707</v>
       </c>
-      <c r="M2" t="n">
-        <v>87.91391253367061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>87.9139125336707</v>
-      </c>
-      <c r="O2" t="n">
-        <v>87.91391253367065</v>
-      </c>
       <c r="P2" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>587.8431257275772</v>
       </c>
       <c r="G3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="H3" t="n">
         <v>587.843125727577</v>
@@ -26771,10 +26771,10 @@
         <v>587.843125727577</v>
       </c>
       <c r="N3" t="n">
+        <v>587.8431257275766</v>
+      </c>
+      <c r="O3" t="n">
         <v>587.8431257275771</v>
-      </c>
-      <c r="O3" t="n">
-        <v>587.843125727577</v>
       </c>
       <c r="P3" t="n">
         <v>587.843125727577</v>
@@ -26811,7 +26811,7 @@
         <v>918.3537744885971</v>
       </c>
       <c r="J4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="K4" t="n">
         <v>918.3537744885972</v>
@@ -26820,7 +26820,7 @@
         <v>918.3537744885971</v>
       </c>
       <c r="M4" t="n">
-        <v>894.7659469227882</v>
+        <v>894.7659469227881</v>
       </c>
       <c r="N4" t="n">
         <v>894.7659469227881</v>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39149435956971</v>
+        <v>61.39149435956977</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>-5.665076810060058e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627493</v>
+        <v>20.41977542627482</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.7516580451294</v>
+        <v>653.7516580451293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956971</v>
+        <v>61.39149435956977</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627493</v>
+        <v>20.41977542627482</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,13 +27394,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>112.8606504630033</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>159.1343663308174</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27515,16 +27515,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>132.5721340598014</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>104.097952907921</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27588,7 +27588,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>124.2586028933485</v>
@@ -27628,16 +27628,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>201.9656575144215</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>171.3081882983289</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27695,16 +27695,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>25.79444230961016</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>40.32364796962756</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>321.0828082292593</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>141.667205339169</v>
       </c>
       <c r="W8" t="n">
         <v>108.226679839754</v>
@@ -27935,10 +27935,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>69.32498062560293</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>50.84673021034784</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27992,10 +27992,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28050,19 +28050,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>188.1178019595862</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="C11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="E11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="F11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="G11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="I11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>1.422481774376109</v>
       </c>
       <c r="S11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="T11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="U11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="V11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="W11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="C13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="D13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="E13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="F13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="G13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="H13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="I13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="J13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="L13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="M13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="N13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="O13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="P13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="R13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="S13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="T13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="U13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="V13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="W13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="X13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="C14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="D14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="E14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="F14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="G14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="I14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>1.422481774376109</v>
       </c>
       <c r="S14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="T14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="U14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="V14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="W14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="X14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="C16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="D16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="E16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="F16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="G16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="H16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="I16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="J16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="L16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="M16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="N16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="O16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="P16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="R16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="S16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="T16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="U16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="V16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="W16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="X16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627478</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S17" t="n">
         <v>81.81126978584454</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774375266</v>
       </c>
       <c r="S20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="K22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="L22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="M22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="N22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="O22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="P22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="R22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="S22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="C23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="D23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="E23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="F23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="G23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="H23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="I23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774377067</v>
       </c>
       <c r="S23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="T23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="U23" t="n">
-        <v>81.81126978584757</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="V23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="W23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="X23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="D25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="E25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="F25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="G25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="H25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="I25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="J25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="K25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="L25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="M25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="N25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="O25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="P25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="R25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="S25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="T25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="U25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="V25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="W25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="X25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.81126978584444</v>
+        <v>81.81126978584452</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="C26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="D26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="E26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="F26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="G26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="H26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="I26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="T26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="U26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="V26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="W26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="X26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="C28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="D28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="E28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="F28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="G28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="H28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="I28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="J28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="K28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="L28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="M28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="N28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="O28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="P28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="R28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="S28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="T28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="U28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="V28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="W28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="X28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584456</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="C29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="D29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="E29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="F29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="G29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="H29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="I29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="T29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="U29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="V29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="W29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="X29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="C31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="D31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="E31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="F31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="G31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="H31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="I31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="J31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="K31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="L31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="M31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="N31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="O31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="P31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="R31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="S31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="T31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="U31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="V31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="W31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="X31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.81126978584449</v>
+        <v>81.81126978584456</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I32" t="n">
-        <v>85.71066562432546</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V32" t="n">
-        <v>87.9139125336707</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>87.9139125336707</v>
+        <v>85.71066562432537</v>
       </c>
       <c r="X32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="K37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="L37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="M37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="N37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="O37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="P37" t="n">
-        <v>87.91391253367306</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="R37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="S37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.91391253367061</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="C38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="D38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="E38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="F38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="G38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="H38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="I38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376251</v>
       </c>
       <c r="S38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="T38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="U38" t="n">
-        <v>87.91391253367053</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="V38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="W38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="X38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="C40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="D40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="E40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="F40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="G40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="H40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="I40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="J40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="K40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="L40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="M40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="N40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="O40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="P40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="R40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="S40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="T40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="U40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="V40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="W40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="X40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367074</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774376138</v>
       </c>
       <c r="S41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="K43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="L43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="N43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="O43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="P43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="R43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="S43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.91391253367065</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T44" t="n">
-        <v>87.9139125336703</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="K46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="L46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="M46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="N46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="O46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="P46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="R46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="S46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
   </sheetData>
@@ -32230,7 +32230,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I17" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J17" t="n">
         <v>200.5726652953606</v>
@@ -32239,16 +32239,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L17" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M17" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N17" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O17" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P17" t="n">
         <v>339.8294523961115</v>
@@ -32260,10 +32260,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S17" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T17" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U17" t="n">
         <v>0.1890550756108789</v>
@@ -32309,43 +32309,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I18" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J18" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K18" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L18" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M18" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N18" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O18" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P18" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q18" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R18" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S18" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T18" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H19" t="n">
-        <v>9.424763556747061</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I19" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J19" t="n">
-        <v>74.94518014398962</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K19" t="n">
         <v>123.1579532262038</v>
@@ -32412,7 +32412,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R19" t="n">
         <v>47.66347704669828</v>
@@ -32424,7 +32424,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.363188445135986</v>
+        <v>2.363188445135985</v>
       </c>
       <c r="H38" t="n">
-        <v>24.20200366374893</v>
+        <v>24.20200366374891</v>
       </c>
       <c r="I38" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110514</v>
       </c>
       <c r="J38" t="n">
-        <v>200.5726652953606</v>
+        <v>200.5726652953605</v>
       </c>
       <c r="K38" t="n">
-        <v>300.606432177967</v>
+        <v>300.6064321779668</v>
       </c>
       <c r="L38" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557973</v>
       </c>
       <c r="M38" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669843</v>
       </c>
       <c r="N38" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367269</v>
       </c>
       <c r="O38" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354059</v>
       </c>
       <c r="P38" t="n">
-        <v>339.8294523961115</v>
+        <v>339.8294523961113</v>
       </c>
       <c r="Q38" t="n">
-        <v>255.1977662046789</v>
+        <v>255.1977662046787</v>
       </c>
       <c r="R38" t="n">
-        <v>148.4466361667735</v>
+        <v>148.4466361667734</v>
       </c>
       <c r="S38" t="n">
-        <v>53.85115669353635</v>
+        <v>53.8511566935363</v>
       </c>
       <c r="T38" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1890550756108789</v>
+        <v>0.1890550756108788</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.264417289300826</v>
+        <v>1.264417289300825</v>
       </c>
       <c r="H39" t="n">
-        <v>12.21160908351061</v>
+        <v>12.2116090835106</v>
       </c>
       <c r="I39" t="n">
-        <v>43.53366544303284</v>
+        <v>43.5336654430328</v>
       </c>
       <c r="J39" t="n">
-        <v>119.4597053896013</v>
+        <v>119.4597053896012</v>
       </c>
       <c r="K39" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727565</v>
       </c>
       <c r="L39" t="n">
-        <v>274.5393767843746</v>
+        <v>274.5393767843744</v>
       </c>
       <c r="M39" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215292</v>
       </c>
       <c r="N39" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256563</v>
       </c>
       <c r="O39" t="n">
-        <v>300.8370381258856</v>
+        <v>300.8370381258854</v>
       </c>
       <c r="P39" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578041</v>
       </c>
       <c r="Q39" t="n">
-        <v>161.4017578412774</v>
+        <v>161.4017578412773</v>
       </c>
       <c r="R39" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395829</v>
       </c>
       <c r="S39" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977628</v>
       </c>
       <c r="T39" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260781</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031749</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.060044980820221</v>
+        <v>1.06004498082022</v>
       </c>
       <c r="H40" t="n">
-        <v>9.424763556747061</v>
+        <v>9.424763556747054</v>
       </c>
       <c r="I40" t="n">
-        <v>31.87844360502993</v>
+        <v>31.8784436050299</v>
       </c>
       <c r="J40" t="n">
-        <v>74.94518014398962</v>
+        <v>74.94518014398956</v>
       </c>
       <c r="K40" t="n">
-        <v>123.1579532262038</v>
+        <v>123.1579532262037</v>
       </c>
       <c r="L40" t="n">
-        <v>157.5997783303081</v>
+        <v>157.599778330308</v>
       </c>
       <c r="M40" t="n">
-        <v>166.166869129846</v>
+        <v>166.1668691298459</v>
       </c>
       <c r="N40" t="n">
-        <v>162.2157923831526</v>
+        <v>162.2157923831525</v>
       </c>
       <c r="O40" t="n">
-        <v>149.8325396526618</v>
+        <v>149.8325396526617</v>
       </c>
       <c r="P40" t="n">
-        <v>128.2076220439292</v>
+        <v>128.2076220439291</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486407</v>
       </c>
       <c r="R40" t="n">
-        <v>47.66347704669828</v>
+        <v>47.66347704669825</v>
       </c>
       <c r="S40" t="n">
-        <v>18.47369298393057</v>
+        <v>18.47369298393055</v>
       </c>
       <c r="T40" t="n">
-        <v>4.529283099868215</v>
+        <v>4.529283099868212</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746662</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I41" t="n">
-        <v>91.10682253110519</v>
+        <v>91.10682253110521</v>
       </c>
       <c r="J41" t="n">
         <v>200.5726652953606</v>
@@ -34135,16 +34135,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L41" t="n">
-        <v>372.9288605557974</v>
+        <v>372.9288605557975</v>
       </c>
       <c r="M41" t="n">
-        <v>414.9552130669845</v>
+        <v>414.9552130669846</v>
       </c>
       <c r="N41" t="n">
-        <v>421.6696222367272</v>
+        <v>421.6696222367273</v>
       </c>
       <c r="O41" t="n">
-        <v>398.1706671354062</v>
+        <v>398.1706671354063</v>
       </c>
       <c r="P41" t="n">
         <v>339.8294523961115</v>
@@ -34156,10 +34156,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S41" t="n">
-        <v>53.85115669353634</v>
+        <v>53.85115669353635</v>
       </c>
       <c r="T41" t="n">
-        <v>10.34485741858278</v>
+        <v>10.34485741858279</v>
       </c>
       <c r="U41" t="n">
         <v>0.1890550756108789</v>
@@ -34205,43 +34205,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I42" t="n">
-        <v>43.53366544303283</v>
+        <v>43.53366544303284</v>
       </c>
       <c r="J42" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K42" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727567</v>
       </c>
       <c r="L42" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M42" t="n">
-        <v>320.3745035215294</v>
+        <v>320.3745035215295</v>
       </c>
       <c r="N42" t="n">
-        <v>328.8538633256565</v>
+        <v>328.8538633256566</v>
       </c>
       <c r="O42" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P42" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578043</v>
       </c>
       <c r="Q42" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R42" t="n">
-        <v>78.50478573395833</v>
+        <v>78.50478573395834</v>
       </c>
       <c r="S42" t="n">
-        <v>23.48599657977629</v>
+        <v>23.4859965797763</v>
       </c>
       <c r="T42" t="n">
-        <v>5.096488986260784</v>
+        <v>5.096488986260785</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08318534798031753</v>
+        <v>0.08318534798031756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,13 +34281,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H43" t="n">
-        <v>9.42476355674706</v>
+        <v>9.424763556747061</v>
       </c>
       <c r="I43" t="n">
-        <v>31.87844360502992</v>
+        <v>31.87844360502993</v>
       </c>
       <c r="J43" t="n">
-        <v>74.9451801439896</v>
+        <v>74.94518014398962</v>
       </c>
       <c r="K43" t="n">
         <v>123.1579532262038</v>
@@ -34308,7 +34308,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.76431198486412</v>
+        <v>88.76431198486414</v>
       </c>
       <c r="R43" t="n">
         <v>47.66347704669828</v>
@@ -34320,7 +34320,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05782063531746665</v>
+        <v>0.05782063531746666</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K12" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L12" t="n">
-        <v>228.2404041034401</v>
+        <v>506.8253423079597</v>
       </c>
       <c r="M12" t="n">
-        <v>643.9455333495112</v>
+        <v>178.2404695995112</v>
       </c>
       <c r="N12" t="n">
-        <v>197.5121512423233</v>
+        <v>265.9191627244604</v>
       </c>
       <c r="O12" t="n">
         <v>552.1031129581708</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591696</v>
+        <v>2.005775453591639</v>
       </c>
       <c r="K13" t="n">
         <v>121.3082368265958</v>
@@ -35574,19 +35574,19 @@
         <v>205.6095790168991</v>
       </c>
       <c r="M13" t="n">
-        <v>226.1705215179615</v>
+        <v>226.1705215179614</v>
       </c>
       <c r="N13" t="n">
-        <v>226.7677401886561</v>
+        <v>226.767740188656</v>
       </c>
       <c r="O13" t="n">
-        <v>194.8374429929764</v>
+        <v>194.8374429929763</v>
       </c>
       <c r="P13" t="n">
-        <v>145.9059567350976</v>
+        <v>145.9059567350975</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.0220441594446</v>
+        <v>23.02204415944454</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>506.8253423079597</v>
       </c>
       <c r="M15" t="n">
-        <v>643.9455333495112</v>
+        <v>178.2404695995112</v>
       </c>
       <c r="N15" t="n">
-        <v>197.5121512423233</v>
+        <v>265.9191627244604</v>
       </c>
       <c r="O15" t="n">
         <v>552.1031129581708</v>
       </c>
       <c r="P15" t="n">
-        <v>238.7158420513974</v>
+        <v>425.9366065834113</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.41998375525594</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.005775453591696</v>
+        <v>2.005775453591639</v>
       </c>
       <c r="K16" t="n">
         <v>121.3082368265958</v>
@@ -35811,19 +35811,19 @@
         <v>205.6095790168991</v>
       </c>
       <c r="M16" t="n">
-        <v>226.1705215179615</v>
+        <v>226.1705215179614</v>
       </c>
       <c r="N16" t="n">
-        <v>226.7677401886561</v>
+        <v>226.767740188656</v>
       </c>
       <c r="O16" t="n">
-        <v>194.8374429929764</v>
+        <v>194.8374429929763</v>
       </c>
       <c r="P16" t="n">
-        <v>145.9059567350976</v>
+        <v>145.9059567350975</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.0220441594446</v>
+        <v>23.02204415944454</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K17" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L17" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M17" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N17" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O17" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P17" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q17" t="n">
         <v>245.2070669901341</v>
@@ -35963,16 +35963,16 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K18" t="n">
-        <v>66.33422479839768</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L18" t="n">
-        <v>506.8253423079596</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M18" t="n">
-        <v>241.8476314865227</v>
+        <v>456.7247688174977</v>
       </c>
       <c r="N18" t="n">
-        <v>676.8545255858768</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O18" t="n">
         <v>552.1031129581706</v>
@@ -35981,7 +35981,7 @@
         <v>425.9366065834112</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.41998375525588</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.39726981316139</v>
+        <v>63.39726981316137</v>
       </c>
       <c r="K19" t="n">
         <v>182.6997311861655</v>
@@ -36060,7 +36060,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.4135385190143</v>
+        <v>84.41353851901428</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.6233759407481</v>
+        <v>188.6233759407489</v>
       </c>
       <c r="K20" t="n">
         <v>404.6619937041511</v>
@@ -36127,7 +36127,7 @@
         <v>554.8236601362606</v>
       </c>
       <c r="M20" t="n">
-        <v>634.1225133325452</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N20" t="n">
         <v>629.6034830521205</v>
@@ -36203,16 +36203,16 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L21" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M21" t="n">
-        <v>643.9455333495109</v>
+        <v>246.6474810816486</v>
       </c>
       <c r="N21" t="n">
         <v>197.5121512423232</v>
       </c>
       <c r="O21" t="n">
-        <v>525.6454059937672</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P21" t="n">
         <v>425.9366065834112</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.39726981316139</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K22" t="n">
         <v>182.6997311861655</v>
@@ -36297,7 +36297,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.4135385190143</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>118.7131140633435</v>
+        <v>101.6400704786571</v>
       </c>
       <c r="K24" t="n">
         <v>330.7994618109763</v>
@@ -36443,16 +36443,16 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M24" t="n">
-        <v>565.1102497215858</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N24" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O24" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P24" t="n">
-        <v>107.473837943474</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q24" t="n">
         <v>231.497271491105</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.39726981316127</v>
+        <v>63.39726981316134</v>
       </c>
       <c r="K25" t="n">
-        <v>182.6997311861654</v>
+        <v>182.6997311861655</v>
       </c>
       <c r="L25" t="n">
-        <v>267.0010733764687</v>
+        <v>267.0010733764688</v>
       </c>
       <c r="M25" t="n">
         <v>287.5620158775311</v>
       </c>
       <c r="N25" t="n">
-        <v>288.1592345482256</v>
+        <v>288.1592345482257</v>
       </c>
       <c r="O25" t="n">
-        <v>256.2289373525459</v>
+        <v>256.228937352546</v>
       </c>
       <c r="P25" t="n">
-        <v>207.2974510946671</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.41353851901418</v>
+        <v>84.41353851901425</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L27" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M27" t="n">
-        <v>178.2404695995111</v>
+        <v>365.3605951449923</v>
       </c>
       <c r="N27" t="n">
-        <v>530.3843997370395</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O27" t="n">
         <v>552.1031129581706</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316137</v>
+        <v>63.39726981316139</v>
       </c>
       <c r="K28" t="n">
         <v>182.6997311861655</v>
@@ -36771,7 +36771,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.41353851901428</v>
+        <v>84.4135385190143</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>66.33422479839766</v>
       </c>
       <c r="L30" t="n">
-        <v>506.8253423079595</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M30" t="n">
-        <v>425.6326630274032</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N30" t="n">
         <v>676.8545255858767</v>
       </c>
       <c r="O30" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P30" t="n">
-        <v>425.9366065834112</v>
+        <v>184.601762288033</v>
       </c>
       <c r="Q30" t="n">
         <v>231.497271491105</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.39726981316132</v>
+        <v>63.39726981316139</v>
       </c>
       <c r="K31" t="n">
-        <v>182.6997311861654</v>
+        <v>182.6997311861655</v>
       </c>
       <c r="L31" t="n">
         <v>267.0010733764688</v>
       </c>
       <c r="M31" t="n">
-        <v>287.5620158775311</v>
+        <v>287.5620158775312</v>
       </c>
       <c r="N31" t="n">
-        <v>288.1592345482257</v>
+        <v>288.1592345482258</v>
       </c>
       <c r="O31" t="n">
         <v>256.228937352546</v>
@@ -37008,7 +37008,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.41353851901422</v>
+        <v>84.4135385190143</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>110.4775314770849</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K33" t="n">
         <v>66.33422479839766</v>
       </c>
       <c r="L33" t="n">
-        <v>506.8253423079595</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M33" t="n">
         <v>643.9455333495109</v>
@@ -37160,13 +37160,13 @@
         <v>676.8545255858767</v>
       </c>
       <c r="O33" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P33" t="n">
-        <v>425.9366065834112</v>
+        <v>184.601762288033</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.41998375525586</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.49991256098753</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K34" t="n">
         <v>188.8023739339916</v>
       </c>
       <c r="L34" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M34" t="n">
         <v>293.6646586253573</v>
@@ -37245,7 +37245,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>554.8236601362606</v>
       </c>
       <c r="M35" t="n">
-        <v>634.1225133325443</v>
+        <v>540.7242466073207</v>
       </c>
       <c r="N35" t="n">
         <v>629.6034830521205</v>
@@ -37324,7 +37324,7 @@
         <v>430.3951648123246</v>
       </c>
       <c r="Q35" t="n">
-        <v>151.808800264911</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K36" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L36" t="n">
-        <v>506.8253423079595</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M36" t="n">
-        <v>640.5098003583782</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N36" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O36" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P36" t="n">
-        <v>425.9366065834112</v>
+        <v>184.601762288033</v>
       </c>
       <c r="Q36" t="n">
         <v>231.497271491105</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.49991256098744</v>
+        <v>69.49991256098751</v>
       </c>
       <c r="K37" t="n">
         <v>188.8023739339916</v>
@@ -37470,19 +37470,19 @@
         <v>273.1037161242949</v>
       </c>
       <c r="M37" t="n">
-        <v>293.6646586253572</v>
+        <v>293.6646586253573</v>
       </c>
       <c r="N37" t="n">
-        <v>294.2618772960518</v>
+        <v>294.2618772960519</v>
       </c>
       <c r="O37" t="n">
-        <v>262.3315801003721</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P37" t="n">
-        <v>213.4000938424957</v>
+        <v>213.4000938424933</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.51618126684035</v>
+        <v>90.51618126684042</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>188.6233759407481</v>
+        <v>188.623375940748</v>
       </c>
       <c r="K38" t="n">
-        <v>404.6619937041512</v>
+        <v>311.263726978929</v>
       </c>
       <c r="L38" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M38" t="n">
-        <v>540.7242466073204</v>
+        <v>634.122513332544</v>
       </c>
       <c r="N38" t="n">
-        <v>629.6034830521205</v>
+        <v>629.6034830521202</v>
       </c>
       <c r="O38" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764646</v>
       </c>
       <c r="P38" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123244</v>
       </c>
       <c r="Q38" t="n">
-        <v>245.2070669901341</v>
+        <v>245.2070669901339</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K39" t="n">
-        <v>248.6545007487528</v>
+        <v>166.4841231162278</v>
       </c>
       <c r="L39" t="n">
-        <v>506.8253423079596</v>
+        <v>506.8253423079594</v>
       </c>
       <c r="M39" t="n">
-        <v>178.2404695995112</v>
+        <v>643.9455333495108</v>
       </c>
       <c r="N39" t="n">
-        <v>676.8545255858768</v>
+        <v>676.8545255858766</v>
       </c>
       <c r="O39" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814409</v>
       </c>
       <c r="P39" t="n">
-        <v>425.9366065834112</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.41998375525588</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.49991256098754</v>
+        <v>69.49991256098753</v>
       </c>
       <c r="K40" t="n">
         <v>188.8023739339916</v>
       </c>
       <c r="L40" t="n">
-        <v>273.103716124295</v>
+        <v>273.1037161242949</v>
       </c>
       <c r="M40" t="n">
         <v>293.6646586253573</v>
@@ -37713,13 +37713,13 @@
         <v>294.2618772960519</v>
       </c>
       <c r="O40" t="n">
-        <v>262.3315801003722</v>
+        <v>262.3315801003721</v>
       </c>
       <c r="P40" t="n">
-        <v>213.4000938424934</v>
+        <v>213.4000938424933</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.51618126684045</v>
+        <v>90.51618126684042</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K41" t="n">
-        <v>404.6619937041511</v>
+        <v>404.6619937041512</v>
       </c>
       <c r="L41" t="n">
-        <v>554.8236601362606</v>
+        <v>554.8236601362607</v>
       </c>
       <c r="M41" t="n">
-        <v>540.7242466073207</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N41" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O41" t="n">
-        <v>548.8726369764648</v>
+        <v>548.8726369764649</v>
       </c>
       <c r="P41" t="n">
-        <v>430.3951648123246</v>
+        <v>336.9968980871005</v>
       </c>
       <c r="Q41" t="n">
         <v>245.2070669901341</v>
@@ -37859,25 +37859,25 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K42" t="n">
-        <v>66.33422479839766</v>
+        <v>251.9641781830509</v>
       </c>
       <c r="L42" t="n">
-        <v>506.8253423079595</v>
+        <v>506.8253423079596</v>
       </c>
       <c r="M42" t="n">
-        <v>643.9455333495109</v>
+        <v>643.9455333495112</v>
       </c>
       <c r="N42" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423233</v>
       </c>
       <c r="O42" t="n">
-        <v>468.46797973512</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P42" t="n">
-        <v>107.473837943474</v>
+        <v>107.4738379434741</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.41998375525586</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.49991256098748</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K43" t="n">
         <v>188.8023739339916</v>
       </c>
       <c r="L43" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M43" t="n">
         <v>293.6646586253573</v>
       </c>
       <c r="N43" t="n">
-        <v>294.2618772960518</v>
+        <v>294.2618772960519</v>
       </c>
       <c r="O43" t="n">
         <v>262.3315801003722</v>
       </c>
       <c r="P43" t="n">
-        <v>213.4000938424933</v>
+        <v>213.4000938424934</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.51618126684039</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>404.6619937041511</v>
       </c>
       <c r="L44" t="n">
-        <v>554.8236601362606</v>
+        <v>461.425393411037</v>
       </c>
       <c r="M44" t="n">
         <v>634.1225133325443</v>
@@ -38029,7 +38029,7 @@
         <v>629.6034830521205</v>
       </c>
       <c r="O44" t="n">
-        <v>455.4743702512414</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P44" t="n">
         <v>430.3951648123246</v>
@@ -38099,7 +38099,7 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L45" t="n">
-        <v>234.1245227091224</v>
+        <v>158.7249720723301</v>
       </c>
       <c r="M45" t="n">
         <v>643.9455333495109</v>
@@ -38108,10 +38108,10 @@
         <v>676.8545255858767</v>
       </c>
       <c r="O45" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P45" t="n">
-        <v>425.9366065834112</v>
+        <v>107.473837943474</v>
       </c>
       <c r="Q45" t="n">
         <v>21.41998375525586</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.49991256098757</v>
+        <v>69.49991256098755</v>
       </c>
       <c r="K46" t="n">
         <v>188.8023739339917</v>
@@ -38193,7 +38193,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.51618126684048</v>
+        <v>90.51618126684046</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
